--- a/docs/contoh-atenuasi.xlsx
+++ b/docs/contoh-atenuasi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Invited Talks &amp; Workshops\mg-sem-workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Invited Talks &amp; Workshops\mg-sem-workshop\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DF61EE-D460-4C4F-9659-8BF1B5C00024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06861FD3-D21B-45E0-B662-A9FCFA152EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E35AADD3-C719-42F6-AD47-B94E6B8EA4CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{E35AADD3-C719-42F6-AD47-B94E6B8EA4CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>x1</t>
   </si>
@@ -113,10 +113,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,19 +439,19 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -533,13 +533,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -579,11 +579,11 @@
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <f>B6/(SQRT(0.9*0.55))</f>
         <v>-1.2621482408252138</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f>C6/(SQRT(0.87*0.55))</f>
         <v>-1.0610970053460902</v>
       </c>

--- a/docs/contoh-atenuasi.xlsx
+++ b/docs/contoh-atenuasi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Invited Talks &amp; Workshops\mg-sem-workshop\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Invited Talks &amp; Workshops\mg-sem-workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06861FD3-D21B-45E0-B662-A9FCFA152EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DF61EE-D460-4C4F-9659-8BF1B5C00024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{E35AADD3-C719-42F6-AD47-B94E6B8EA4CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E35AADD3-C719-42F6-AD47-B94E6B8EA4CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="11">
   <si>
     <t>x1</t>
   </si>
@@ -113,10 +113,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,19 +439,19 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -533,13 +533,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -579,11 +579,11 @@
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <f>B6/(SQRT(0.9*0.55))</f>
         <v>-1.2621482408252138</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f>C6/(SQRT(0.87*0.55))</f>
         <v>-1.0610970053460902</v>
       </c>
